--- a/SmartCar协议.xlsx
+++ b/SmartCar协议.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TianYuan/Documents/Project/STC/SmartCar/DOC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TianYuan/Documents/Project/STC/SmartCar/SmartCarDOC/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1420" windowWidth="28160" windowHeight="15380" tabRatio="500"/>
+    <workbookView xWindow="30020" yWindow="1880" windowWidth="33940" windowHeight="20040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,10 +86,6 @@
   </si>
   <si>
     <t>灯光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x12345</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -122,19 +118,6 @@
   </si>
   <si>
     <t>0X02开/0X01关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前后左右停</t>
-    <rPh sb="0" eb="1">
-      <t>qian'hou</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zuo'you</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ting'zhi</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -146,6 +129,122 @@
     <rPh sb="11" eb="12">
       <t>shang'chuan</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油门</t>
+    <rPh sb="0" eb="1">
+      <t>you'men</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X04</t>
+  </si>
+  <si>
+    <t>数据高位表示左右，低位表示转向角度</t>
+    <rPh sb="0" eb="1">
+      <t>shu'j'gao'wei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao's</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zuo'you</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>di'wei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>baio's</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhuan'xiang'jiao'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X02左/0X01右</t>
+    <rPh sb="4" eb="5">
+      <t>zuo'b</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>you'bain</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X02前/0X01后</t>
+    <rPh sb="4" eb="5">
+      <t>qian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>hou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据高位表示前后，低位表示油门大小</t>
+    <rPh sb="0" eb="1">
+      <t>shu'j'gao'wei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao's</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qian'hou</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>di'wei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>baio's</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>you'men</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>da'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据高位保留</t>
+    <rPh sb="0" eb="1">
+      <t>shu'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gao'wei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bao'liu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X03/0X02/0X01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻车</t>
+    <rPh sb="0" eb="1">
+      <t>xun'che</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引擎</t>
+    <rPh sb="0" eb="1">
+      <t>yin'q</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X06</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -153,7 +252,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -186,6 +285,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -195,7 +312,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -244,15 +361,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -263,21 +450,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -552,149 +761,255 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="4"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18" style="3" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" style="3" customWidth="1"/>
+    <col min="10" max="11" width="10.83203125" style="3"/>
+    <col min="12" max="12" width="44" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="2" t="s">
-        <v>16</v>
+      <c r="K1" s="14"/>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="1" t="s">
-        <v>21</v>
+      <c r="E2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
